--- a/definition/xlsx/TPMT_allele_definition_table.xlsx
+++ b/definition/xlsx/TPMT_allele_definition_table.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jing/work/pharmacogenomics/PharmGKB/allele_definition_table_1_12_19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavita/Dropbox (Personal)/PhamacoProject/allele_definition_table_new_1_12_19_edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846FB4BA-FBA3-8E49-8B35-E358E353802F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="460" windowWidth="23140" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="460" windowWidth="23140" windowHeight="16300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alleles" sheetId="4" r:id="rId1"/>
     <sheet name="Change log" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -778,7 +777,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1485,11 +1484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DU55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="AA1" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4301,10 +4300,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9B3B4-D9C1-A540-91B6-1AFFC5DFE62C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
